--- a/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{354786DB-AA1C-485D-BAA9-019281DCF0B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5AD89A-2749-4A96-A306-81792F8E678D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1716" yWindow="1752" windowWidth="21324" windowHeight="11208" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21324" windowHeight="11208" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
   <si>
     <t>Game</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Twenty horses ran in the 2016 Kentucky Derby.  The Superfecta bet involves picking the first four finishers in order.  Determine the number of outcomes for four horses finishing in the first four spots and the probability of winning the Superfecta bet if you pick the horses at random.</t>
-  </si>
-  <si>
-    <t>In a lottery game, 40 numbered ping-pong balls are put in a bin, and 5 are randomly chosen. You’ll get twice your money back if you match three of the five numbers.  Still using the same number of outcomes as the game above (choosing 5 different ping-pong balls from the 40), determine the probability of matching three out of five numbers.</t>
   </si>
   <si>
     <t>Permutation</t>
@@ -113,6 +110,12 @@
   </si>
   <si>
     <t>Describe how you can win this game</t>
+  </si>
+  <si>
+    <t>In a lottery game, 40 numbered ping-pong balls are put in a bin, and 5 are randomly chosen. You’ll get twice your money back if you match exactly three of the five numbers.  Still using the same number of outcomes as the game above (choosing 5 different ping-pong balls from the 40), determine the probability of matching three out of five numbers.</t>
+  </si>
+  <si>
+    <t>Interpretation of odds.</t>
   </si>
 </sst>
 </file>
@@ -122,9 +125,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -329,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,25 +350,16 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -393,13 +394,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,16 +409,16 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,6 +430,12 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -436,6 +443,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,201 +465,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>499533</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1109133</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2AFE0A-C62E-42E7-A4FF-EDCBBD2E1939}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9491133" y="6866467"/>
-          <a:ext cx="5435600" cy="1769533"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Careful with these two entries!</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>  To pick 3 out of 5 numbers correctly, consider that 3 of your choices must be among the set of 5 numbers chosen, and then the other 2 of your choices must be among the set of numbers not chosen.  So, this means that you're multiplying together two combinations here.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0D8A43-2A3A-4576-9130-C9ED36264D6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11717867" y="6197600"/>
-          <a:ext cx="694266" cy="719668"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="lg" len="sm"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F694C68A-83F0-49F3-92F7-C60AE8D46933}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12395200" y="6206067"/>
-          <a:ext cx="592667" cy="711202"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="lg" len="sm"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -928,183 +746,224 @@
     <col min="6" max="6" width="18.69921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.19921875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.69921875" customWidth="1"/>
+    <col min="9" max="9" width="34.09765625" style="33" customWidth="1"/>
     <col min="10" max="10" width="20.8984375" customWidth="1"/>
     <col min="11" max="11" width="23.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="63" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="32"/>
-    </row>
-    <row r="2" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="H9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="24">
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="21">
         <f>PERMUT(20,2)</f>
         <v>380</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="22">
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19">
         <v>1</v>
       </c>
-      <c r="G2" s="29">
-        <f>F2/D2</f>
+      <c r="G10" s="26">
+        <f>F10/D10</f>
         <v>2.631578947368421E-3</v>
       </c>
-      <c r="H2" s="22">
-        <f>(1-G2)/G2</f>
+      <c r="H10" s="19">
+        <f>(1-G10)/G10</f>
         <v>379</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="I10" s="6" t="str">
+        <f>"Your odds of winning are "&amp;H10&amp;" to 1!"</f>
+        <v>Your odds of winning are 379 to 1!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="23"/>
-      <c r="J3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="6" t="str">
+        <f>"Your odds of winning are "&amp;IF(NOT(ISBLANK(H11)),H11,"???")&amp;" to 1!"</f>
+        <v>Your odds of winning are ??? to 1!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="23"/>
-      <c r="J4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="6" t="str">
+        <f t="shared" ref="I12:I15" si="0">"Your odds of winning are "&amp;IF(NOT(ISBLANK(H12)),H12,"???")&amp;" to 1!"</f>
+        <v>Your odds of winning are ??? to 1!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="23"/>
-      <c r="J5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Your odds of winning are ??? to 1!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="23"/>
-      <c r="J6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="70.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="3"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Your odds of winning are ??? to 1!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Your odds of winning are ??? to 1!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5AD89A-2749-4A96-A306-81792F8E678D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46A83A-B0E9-4DDD-9F9C-CAD68E4D6218}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21324" windowHeight="11208" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1788" yWindow="0" windowWidth="19272" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Games" sheetId="1" r:id="rId1"/>
+    <sheet name="soln1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Game</t>
   </si>
@@ -116,6 +117,45 @@
   </si>
   <si>
     <t>Interpretation of odds.</t>
+  </si>
+  <si>
+    <t>Combination</t>
+  </si>
+  <si>
+    <t>Pick any 4 out of 20 horses, where the order of selection matters.</t>
+  </si>
+  <si>
+    <t>Pick any 3 out of 20 horses, where the order of selection matters.</t>
+  </si>
+  <si>
+    <t>Pick the first horse, the second horse, and the third horse in order.</t>
+  </si>
+  <si>
+    <t>Pick the first horse, the second horse, third, and the fourth horse in order.</t>
+  </si>
+  <si>
+    <t>Pick any 4 out of 50 numbered balls, where the order of selection matters.</t>
+  </si>
+  <si>
+    <t>Pick the first numbered ball, the second ball, third ball, and the fourth ball in order.</t>
+  </si>
+  <si>
+    <t>Pick 5 balls from 50 without replacement where order does not matter.</t>
+  </si>
+  <si>
+    <t>Pick five balls that match the given selection of five balls.</t>
+  </si>
+  <si>
+    <t>Pick five balls that match exactly three of the chosen balls.</t>
+  </si>
+  <si>
+    <t>Make a selection</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Think about the possible ways you can choose so that you get exactly three of the five balls, and two of the others. This involves two choices.</t>
   </si>
 </sst>
 </file>
@@ -125,9 +165,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -192,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +283,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -335,11 +395,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,57 +532,25 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -409,16 +559,16 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -430,31 +580,263 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -465,6 +847,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDFB92F-F06D-4861-A13C-68A6A33A4D0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13167360" y="7970520"/>
+          <a:ext cx="647700" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -746,220 +1186,607 @@
     <col min="6" max="6" width="18.69921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.19921875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.69921875" customWidth="1"/>
-    <col min="9" max="9" width="34.09765625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="34.09765625" style="23" customWidth="1"/>
     <col min="10" max="10" width="20.8984375" customWidth="1"/>
     <col min="11" max="11" width="23.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
+    <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D11" s="13">
         <f>PERMUT(20,2)</f>
         <v>380</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="26">
-        <f>F10/D10</f>
+      <c r="G11" s="18">
+        <f>F11/D11</f>
         <v>2.631578947368421E-3</v>
       </c>
-      <c r="H10" s="19">
-        <f>(1-G10)/G10</f>
+      <c r="H11" s="11">
+        <f>(1-G11)/G11</f>
         <v>379</v>
       </c>
-      <c r="I10" s="6" t="str">
-        <f>"Your odds of winning are "&amp;H10&amp;" to 1!"</f>
+      <c r="I11" s="6" t="str">
+        <f>"Your odds of winning are "&amp;H11&amp;" to 1!"</f>
         <v>Your odds of winning are 379 to 1!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+    <row r="12" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="6" t="str">
-        <f>"Your odds of winning are "&amp;IF(NOT(ISBLANK(H11)),H11,"???")&amp;" to 1!"</f>
+      <c r="B12" s="37"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="6" t="str">
+        <f>"Your odds of winning are "&amp;IF(NOT(ISBLANK(H12)),H12,"???")&amp;" to 1!"</f>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="6" t="str">
-        <f t="shared" ref="I12:I15" si="0">"Your odds of winning are "&amp;IF(NOT(ISBLANK(H12)),H12,"???")&amp;" to 1!"</f>
+      <c r="B13" s="37"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="6" t="str">
+        <f t="shared" ref="I13:I16" si="0">"Your odds of winning are "&amp;IF(NOT(ISBLANK(H13)),H13,"???")&amp;" to 1!"</f>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Your odds of winning are ??? to 1!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="20"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
+    <row r="16" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Your odds of winning are ??? to 1!</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="75"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+    </row>
+    <row r="21" spans="6:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F18:G21"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="Make a selection" promptTitle="Choose" prompt="Permutation_x000a_Combination" sqref="B12:B16" xr:uid="{F1371D0C-4D6C-4564-8606-B5780CB0D4F2}">
+      <formula1>$B$44:$B$45</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{495C08AE-80E7-4948-9AA1-572EA21DB2FC}">
+            <xm:f>B12&lt;&gt;soln1!B11</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{5DAB86F2-292A-45BF-AB02-5BA097126ADD}">
+            <xm:f>B12=soln1!B11</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color rgb="FF00B050"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B12:B16 D12:D16 F12:H16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1D97F0-2451-47BE-A51B-12A3F1003A2C}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="71.5" style="40" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="25.796875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="41" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="34.09765625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="20.8984375" style="42" customWidth="1"/>
+    <col min="11" max="11" width="23.296875" style="42" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" s="56" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="59">
+        <f>PERMUT(20,2)</f>
+        <v>380</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="60">
+        <v>1</v>
+      </c>
+      <c r="G10" s="61">
+        <f>F10/D10</f>
+        <v>2.631578947368421E-3</v>
+      </c>
+      <c r="H10" s="60">
+        <f>(1-G10)/G10</f>
+        <v>379</v>
+      </c>
+      <c r="I10" s="55" t="str">
+        <f>"Your odds of winning are "&amp;H10&amp;" to 1!"</f>
+        <v>Your odds of winning are 379 to 1!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="64">
+        <f>PERMUT(20,3)</f>
+        <v>6840</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="65">
+        <v>1</v>
+      </c>
+      <c r="G11" s="66">
+        <f>F11/D11</f>
+        <v>1.4619883040935673E-4</v>
+      </c>
+      <c r="H11" s="67">
+        <f>(1-G11)/G11</f>
+        <v>6839</v>
+      </c>
+      <c r="I11" s="55" t="str">
+        <f>"Your odds of winning are 1 to "&amp;IF(NOT(ISBLANK(H11)),H11&amp;"!","???")</f>
+        <v>Your odds of winning are 1 to 6839!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="64">
+        <f>PERMUT(20,4)</f>
+        <v>116280</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="65">
+        <v>1</v>
+      </c>
+      <c r="G12" s="66">
+        <f>F12/D12</f>
+        <v>8.5999312005503954E-6</v>
+      </c>
+      <c r="H12" s="67">
+        <f t="shared" ref="H12:H15" si="0">(1-G12)/G12</f>
+        <v>116279.00000000001</v>
+      </c>
+      <c r="I12" s="55" t="str">
+        <f t="shared" ref="I12:I15" si="1">"Your odds of winning are 1 to "&amp;IF(NOT(ISBLANK(H12)),H12&amp;"!","???")</f>
+        <v>Your odds of winning are 1 to 116279!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="70">
+        <f>PERMUT(50,4)</f>
+        <v>5527200</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="65">
+        <v>1</v>
+      </c>
+      <c r="G13" s="66">
+        <f>F13/D13</f>
+        <v>1.8092343320306847E-7</v>
+      </c>
+      <c r="H13" s="67">
+        <f t="shared" si="0"/>
+        <v>5527199</v>
+      </c>
+      <c r="I13" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>Your odds of winning are 1 to 5527199!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="70">
+        <f>COMBIN(50,5)</f>
+        <v>2118760</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="65">
+        <v>1</v>
+      </c>
+      <c r="G14" s="66">
+        <f>F14/D14</f>
+        <v>4.7197417357322209E-7</v>
+      </c>
+      <c r="H14" s="67">
+        <f t="shared" si="0"/>
+        <v>2118759</v>
+      </c>
+      <c r="I14" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>Your odds of winning are 1 to 2118759!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="72">
+        <f>COMBIN(50,5)</f>
+        <v>2118760</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="67">
+        <f>COMBIN(5,3)*COMBIN(45,2)</f>
+        <v>9900</v>
+      </c>
+      <c r="G15" s="66">
+        <f>F15/D15</f>
+        <v>4.6725443183748983E-3</v>
+      </c>
+      <c r="H15" s="67">
+        <f t="shared" si="0"/>
+        <v>213.01616161616161</v>
+      </c>
+      <c r="I15" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>Your odds of winning are 1 to 213.016161616162!</v>
+      </c>
+    </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G16" s="3"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="3"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="3"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="3"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="3"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="3"/>
+      <c r="G21" s="73"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="CmlhA2zbnwu3h9uKbZsw6qLM+7OuGI0FS1SRNc69ACPAEByGKirqmpKLoiDtS1IiGUm3x3N8pJb8pVtDasia5w==" saltValue="XY6bjqE60wLj0DaUngYsiw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>

--- a/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46A83A-B0E9-4DDD-9F9C-CAD68E4D6218}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1AD999-2CAD-43EA-9671-5BAC40096F62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1788" yWindow="0" windowWidth="19272" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>Pick the first numbered ball, the second ball, third ball, and the fourth ball in order.</t>
   </si>
   <si>
-    <t>Pick 5 balls from 50 without replacement where order does not matter.</t>
-  </si>
-  <si>
     <t>Pick five balls that match the given selection of five balls.</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Think about the possible ways you can choose so that you get exactly three of the five balls, and two of the others. This involves two choices.</t>
+  </si>
+  <si>
+    <t>Pick 5 balls from 40 without replacement where order does not matter.</t>
   </si>
 </sst>
 </file>
@@ -595,14 +595,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -665,14 +657,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -785,6 +769,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -802,12 +794,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -820,20 +820,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
   </dxfs>
@@ -1172,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1193,56 +1179,56 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>39</v>
       </c>
+      <c r="C4" s="28" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1312,7 +1298,7 @@
       <c r="A12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="8"/>
       <c r="D12" s="14"/>
       <c r="E12" s="8"/>
@@ -1328,7 +1314,7 @@
       <c r="A13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="8"/>
       <c r="D13" s="14"/>
       <c r="E13" s="8"/>
@@ -1344,7 +1330,7 @@
       <c r="A14" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="9"/>
       <c r="D14" s="15"/>
       <c r="E14" s="9"/>
@@ -1360,7 +1346,7 @@
       <c r="A15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="9"/>
       <c r="D15" s="15"/>
       <c r="E15" s="9"/>
@@ -1376,7 +1362,7 @@
       <c r="A16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="10"/>
       <c r="D16" s="16"/>
       <c r="E16" s="10"/>
@@ -1392,22 +1378,22 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="75"/>
+      <c r="F18" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
     </row>
     <row r="21" spans="6:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
@@ -1471,322 +1457,322 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1D97F0-2451-47BE-A51B-12A3F1003A2C}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:XFD1048576"/>
+    <sheetView showRuler="0" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.59765625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" style="40" customWidth="1"/>
-    <col min="5" max="5" width="25.796875" style="40" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" style="41" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" style="41" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="34.09765625" style="43" customWidth="1"/>
-    <col min="10" max="10" width="20.8984375" style="42" customWidth="1"/>
-    <col min="11" max="11" width="23.296875" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="42"/>
+    <col min="1" max="1" width="71.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="25.796875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="34.09765625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="20.8984375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="23.296875" style="40" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="45" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:9" s="56" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+    <row r="9" spans="1:9" s="52" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="51" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="55">
         <f>PERMUT(20,2)</f>
         <v>380</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="56">
         <v>1</v>
       </c>
-      <c r="G10" s="61">
-        <f>F10/D10</f>
+      <c r="G10" s="57">
+        <f t="shared" ref="G10:G15" si="0">F10/D10</f>
         <v>2.631578947368421E-3</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="56">
         <f>(1-G10)/G10</f>
         <v>379</v>
       </c>
-      <c r="I10" s="55" t="str">
+      <c r="I10" s="51" t="str">
         <f>"Your odds of winning are "&amp;H10&amp;" to 1!"</f>
         <v>Your odds of winning are 379 to 1!</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="60">
         <f>PERMUT(20,3)</f>
         <v>6840</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="61">
         <v>1</v>
       </c>
-      <c r="G11" s="66">
-        <f>F11/D11</f>
+      <c r="G11" s="62">
+        <f t="shared" si="0"/>
         <v>1.4619883040935673E-4</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="63">
         <f>(1-G11)/G11</f>
         <v>6839</v>
       </c>
-      <c r="I11" s="55" t="str">
+      <c r="I11" s="51" t="str">
         <f>"Your odds of winning are 1 to "&amp;IF(NOT(ISBLANK(H11)),H11&amp;"!","???")</f>
         <v>Your odds of winning are 1 to 6839!</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="60">
         <f>PERMUT(20,4)</f>
         <v>116280</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="61">
         <v>1</v>
       </c>
-      <c r="G12" s="66">
-        <f>F12/D12</f>
+      <c r="G12" s="62">
+        <f t="shared" si="0"/>
         <v>8.5999312005503954E-6</v>
       </c>
-      <c r="H12" s="67">
-        <f t="shared" ref="H12:H15" si="0">(1-G12)/G12</f>
+      <c r="H12" s="63">
+        <f t="shared" ref="H12:H15" si="1">(1-G12)/G12</f>
         <v>116279.00000000001</v>
       </c>
-      <c r="I12" s="55" t="str">
-        <f t="shared" ref="I12:I15" si="1">"Your odds of winning are 1 to "&amp;IF(NOT(ISBLANK(H12)),H12&amp;"!","???")</f>
+      <c r="I12" s="51" t="str">
+        <f t="shared" ref="I12:I15" si="2">"Your odds of winning are 1 to "&amp;IF(NOT(ISBLANK(H12)),H12&amp;"!","???")</f>
         <v>Your odds of winning are 1 to 116279!</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="66">
         <f>PERMUT(50,4)</f>
         <v>5527200</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="61">
         <v>1</v>
       </c>
-      <c r="G13" s="66">
-        <f>F13/D13</f>
+      <c r="G13" s="62">
+        <f t="shared" si="0"/>
         <v>1.8092343320306847E-7</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="63">
+        <f t="shared" si="1"/>
+        <v>5527199</v>
+      </c>
+      <c r="I13" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>Your odds of winning are 1 to 5527199!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="66">
+        <f>COMBIN(40,5)</f>
+        <v>658008</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="61">
+        <v>1</v>
+      </c>
+      <c r="G14" s="62">
         <f t="shared" si="0"/>
-        <v>5527199</v>
-      </c>
-      <c r="I13" s="55" t="str">
+        <v>1.5197383618436251E-6</v>
+      </c>
+      <c r="H14" s="63">
         <f t="shared" si="1"/>
-        <v>Your odds of winning are 1 to 5527199!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="69" t="s">
+        <v>658007</v>
+      </c>
+      <c r="I14" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>Your odds of winning are 1 to 658007!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="70">
-        <f>COMBIN(50,5)</f>
-        <v>2118760</v>
-      </c>
-      <c r="E14" s="69" t="s">
+      <c r="C15" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="68">
+        <f>COMBIN(40,5)</f>
+        <v>658008</v>
+      </c>
+      <c r="E15" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="65">
-        <v>1</v>
-      </c>
-      <c r="G14" s="66">
-        <f>F14/D14</f>
-        <v>4.7197417357322209E-7</v>
-      </c>
-      <c r="H14" s="67">
+      <c r="F15" s="63">
+        <f>COMBIN(5,3)*COMBIN(35,2)</f>
+        <v>5950</v>
+      </c>
+      <c r="G15" s="62">
         <f t="shared" si="0"/>
-        <v>2118759</v>
-      </c>
-      <c r="I14" s="55" t="str">
+        <v>9.0424432529695696E-3</v>
+      </c>
+      <c r="H15" s="63">
         <f t="shared" si="1"/>
-        <v>Your odds of winning are 1 to 2118759!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="72">
-        <f>COMBIN(50,5)</f>
-        <v>2118760</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="67">
-        <f>COMBIN(5,3)*COMBIN(45,2)</f>
-        <v>9900</v>
-      </c>
-      <c r="G15" s="66">
-        <f>F15/D15</f>
-        <v>4.6725443183748983E-3</v>
-      </c>
-      <c r="H15" s="67">
-        <f t="shared" si="0"/>
-        <v>213.01616161616161</v>
-      </c>
-      <c r="I15" s="55" t="str">
-        <f t="shared" si="1"/>
-        <v>Your odds of winning are 1 to 213.016161616162!</v>
+        <v>109.58957983193277</v>
+      </c>
+      <c r="I15" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>Your odds of winning are 1 to 109.589579831933!</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G16" s="73"/>
+      <c r="G16" s="69"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="73"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="73"/>
+      <c r="G18" s="69"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="73"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="73"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="73"/>
+      <c r="G21" s="69"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CmlhA2zbnwu3h9uKbZsw6qLM+7OuGI0FS1SRNc69ACPAEByGKirqmpKLoiDtS1IiGUm3x3N8pJb8pVtDasia5w==" saltValue="XY6bjqE60wLj0DaUngYsiw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="O3dQ52sMccr9WEd7YzllXpdg+o2OpidLKv57FfDrecRvtL1L8JhE5zixpg2UW0FuqFaD3HVuMT9KUWmVQ8btHQ==" saltValue="NgTvaQHUq8Xe5i5+BKF6cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>

--- a/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1AD999-2CAD-43EA-9671-5BAC40096F62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06425903-FD12-4D34-8C42-6DE85AEF5023}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="0" windowWidth="19272" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>Game</t>
   </si>
@@ -156,6 +156,53 @@
   </si>
   <si>
     <t>Pick 5 balls from 40 without replacement where order does not matter.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is a self grading sheet for columns B, D, F, and G. If your answer is correct it will show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, else you will see </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -165,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -245,6 +292,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -290,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -517,11 +580,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -794,6 +894,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1158,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1178,13 +1287,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="78" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
@@ -1193,6 +1305,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="79"/>
       <c r="B4" s="27" t="s">
         <v>39</v>
       </c>
@@ -1200,7 +1313,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="80"/>
       <c r="B5" s="29" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +1484,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="12"/>
       <c r="I16" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>"Your odds of winning are "&amp;IF(NOT(ISBLANK(H16)),ROUND(H16,0),"???")&amp;" to 1!"</f>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
@@ -1409,9 +1523,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F18:G21"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="Make a selection" promptTitle="Choose" prompt="Permutation_x000a_Combination" sqref="B12:B16" xr:uid="{F1371D0C-4D6C-4564-8606-B5780CB0D4F2}">
@@ -1479,10 +1594,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="79"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="42" t="s">

--- a/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06425903-FD12-4D34-8C42-6DE85AEF5023}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06425903-FD12-4D34-8C42-6DE85AEF5023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="732" windowWidth="22344" windowHeight="11628" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1267,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1436,7 +1438,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="12"/>
       <c r="I13" s="6" t="str">
-        <f t="shared" ref="I13:I16" si="0">"Your odds of winning are "&amp;IF(NOT(ISBLANK(H13)),H13,"???")&amp;" to 1!"</f>
+        <f t="shared" ref="I13:I15" si="0">"Your odds of winning are "&amp;IF(NOT(ISBLANK(H13)),H13,"???")&amp;" to 1!"</f>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>

--- a/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06425903-FD12-4D34-8C42-6DE85AEF5023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73523178-FF91-4772-A983-A9420069EC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="732" windowWidth="22344" windowHeight="11628" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19272" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
     <sheet name="soln1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" mergeInterval="0" personalView="1" xWindow="64" yWindow="64" windowWidth="1606" windowHeight="950" tabRatio="500" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1002,6 +1005,27 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{46848E41-8427-4151-B667-C51179324944}">
+  <header guid="{46848E41-8427-4151-B667-C51179324944}" dateTime="2020-12-08T15:38:29" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{46848E41-8427-4151-B667-C51179324944}" name="Richard Ketchersid" id="-1739565536" dateTime="2020-12-08T15:38:29"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1525,6 +1549,13 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" showRuler="0">
+      <selection activeCell="B12" sqref="B12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F18:G21"/>
@@ -1536,8 +1567,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1890,10 +1921,17 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="O3dQ52sMccr9WEd7YzllXpdg+o2OpidLKv57FfDrecRvtL1L8JhE5zixpg2UW0FuqFaD3HVuMT9KUWmVQ8btHQ==" saltValue="NgTvaQHUq8Xe5i5+BKF6cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <customSheetViews>
+    <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" state="hidden" showRuler="0" topLeftCell="B11">
+      <selection activeCell="F16" sqref="F16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73523178-FF91-4772-A983-A9420069EC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{E9FF61AF-2872-432F-9DF8-BF4D9D52450F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19272" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="24090" windowHeight="14250" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Game</t>
   </si>
@@ -209,6 +209,12 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>Enter Name  ⇒</t>
+  </si>
+  <si>
+    <t>Your Name Here</t>
+  </si>
 </sst>
 </file>
 
@@ -217,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,8 +319,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Bradley Hand ITC"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +378,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -622,11 +655,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -916,12 +964,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -955,13 +1025,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1008,8 +1078,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{46848E41-8427-4151-B667-C51179324944}">
-  <header guid="{46848E41-8427-4151-B667-C51179324944}" dateTime="2020-12-08T15:38:29" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FCF5FE3F-8619-44EE-90BF-4B9C59A69FF0}">
+  <header guid="{FCF5FE3F-8619-44EE-90BF-4B9C59A69FF0}" dateTime="2022-05-05T12:28:46" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1024,7 +1094,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{46848E41-8427-4151-B667-C51179324944}" name="Richard Ketchersid" id="-1739565536" dateTime="2020-12-08T15:38:29"/>
+  <userInfo guid="{FCF5FE3F-8619-44EE-90BF-4B9C59A69FF0}" name="Richard Ketchersid" id="-1739543589" dateTime="2022-05-05T12:28:46"/>
 </users>
 </file>
 
@@ -1291,279 +1361,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.59765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" customWidth="1"/>
-    <col min="9" max="9" width="34.09765625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="20.8984375" customWidth="1"/>
-    <col min="11" max="11" width="23.296875" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="34.125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="70" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="83"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="71"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="C4" s="71"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C5" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
-      <c r="B4" s="27" t="s">
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="79"/>
+      <c r="B6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C6" s="28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="80"/>
-      <c r="B5" s="29" t="s">
+      <c r="F6" s="85"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80"/>
+      <c r="B7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C7" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C8" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C9" s="30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="33" t="s">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C10" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D13" s="13">
         <f>PERMUT(20,2)</f>
         <v>380</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="18">
-        <f>F11/D11</f>
+      <c r="G13" s="18">
+        <f>F13/D13</f>
         <v>2.631578947368421E-3</v>
       </c>
-      <c r="H11" s="11">
-        <f>(1-G11)/G11</f>
+      <c r="H13" s="11">
+        <f>(1-G13)/G13</f>
         <v>379</v>
       </c>
-      <c r="I11" s="6" t="str">
-        <f>"Your odds of winning are "&amp;H11&amp;" to 1!"</f>
+      <c r="I13" s="6" t="str">
+        <f>"Your odds of winning are "&amp;H13&amp;" to 1!"</f>
         <v>Your odds of winning are 379 to 1!</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="6" t="str">
-        <f>"Your odds of winning are "&amp;IF(NOT(ISBLANK(H12)),H12,"???")&amp;" to 1!"</f>
-        <v>Your odds of winning are ??? to 1!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="6" t="str">
-        <f t="shared" ref="I13:I15" si="0">"Your odds of winning are "&amp;IF(NOT(ISBLANK(H13)),H13,"???")&amp;" to 1!"</f>
-        <v>Your odds of winning are ??? to 1!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="17"/>
       <c r="G14" s="19"/>
       <c r="H14" s="12"/>
       <c r="I14" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>"Your odds of winning are "&amp;IF(NOT(ISBLANK(H14)),H14,"???")&amp;" to 1!"</f>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9"/>
+    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="17"/>
       <c r="G15" s="19"/>
       <c r="H15" s="12"/>
       <c r="I15" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I15:I17" si="0">"Your odds of winning are "&amp;IF(NOT(ISBLANK(H15)),H15,"???")&amp;" to 1!"</f>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
+    <row r="16" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="19"/>
       <c r="H16" s="12"/>
       <c r="I16" s="6" t="str">
-        <f>"Your odds of winning are "&amp;IF(NOT(ISBLANK(H16)),ROUND(H16,0),"???")&amp;" to 1!"</f>
+        <f t="shared" si="0"/>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
-    <row r="17" spans="6:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" s="72" t="s">
+    <row r="17" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Your odds of winning are ??? to 1!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="6" t="str">
+        <f>"Your odds of winning are "&amp;IF(NOT(ISBLANK(H18)),ROUND(H18,0),"???")&amp;" to 1!"</f>
+        <v>Your odds of winning are ??? to 1!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="73"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
-    </row>
-    <row r="21" spans="6:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="3"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="24" t="s">
+      <c r="G20" s="73"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="24" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="24" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" showRuler="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E7" sqref="E7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F18:G21"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F20:G23"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:I23">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C$2="Your Name Here"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="Make a selection" promptTitle="Choose" prompt="Permutation_x000a_Combination" sqref="B12:B16" xr:uid="{F1371D0C-4D6C-4564-8606-B5780CB0D4F2}">
-      <formula1>$B$44:$B$45</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="Make a selection" promptTitle="Choose" prompt="Permutation_x000a_Combination" sqref="B14:B18" xr:uid="{F1371D0C-4D6C-4564-8606-B5780CB0D4F2}">
+      <formula1>$B$46:$B$47</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1573,8 +1660,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{495C08AE-80E7-4948-9AA1-572EA21DB2FC}">
-            <xm:f>B12&lt;&gt;soln1!B11</xm:f>
+          <x14:cfRule type="expression" priority="3" id="{495C08AE-80E7-4948-9AA1-572EA21DB2FC}">
+            <xm:f>B14&lt;&gt;soln1!B11</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -1583,8 +1670,8 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{5DAB86F2-292A-45BF-AB02-5BA097126ADD}">
-            <xm:f>B12=soln1!B11</xm:f>
+          <x14:cfRule type="expression" priority="4" id="{5DAB86F2-292A-45BF-AB02-5BA097126ADD}">
+            <xm:f>B14=soln1!B11</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -1593,7 +1680,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B12:B16 D12:D16 F12:H16</xm:sqref>
+          <xm:sqref>B14:B18 D14:D18 F14:H18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1609,30 +1696,30 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.59765625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="25.796875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="40" customWidth="1"/>
-    <col min="9" max="9" width="34.09765625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="20.8984375" style="40" customWidth="1"/>
-    <col min="11" max="11" width="23.296875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="38" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="38" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="39" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="39" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="40" customWidth="1"/>
+    <col min="9" max="9" width="34.125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="40" customWidth="1"/>
+    <col min="11" max="11" width="23.25" style="40" customWidth="1"/>
     <col min="12" max="16384" width="11" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="82"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
         <v>14</v>
       </c>
@@ -1640,7 +1727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
         <v>16</v>
       </c>
@@ -1648,7 +1735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="46" t="s">
         <v>18</v>
       </c>
@@ -1656,7 +1743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
         <v>20</v>
       </c>
@@ -1664,7 +1751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="48" t="s">
         <v>22</v>
       </c>
@@ -1672,8 +1759,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:9" s="52" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="52" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1789,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>4</v>
       </c>
@@ -1735,7 +1822,7 @@
         <v>Your odds of winning are 379 to 1!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>5</v>
       </c>
@@ -1768,7 +1855,7 @@
         <v>Your odds of winning are 1 to 6839!</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>6</v>
       </c>
@@ -1801,7 +1888,7 @@
         <v>Your odds of winning are 1 to 116279!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>2</v>
       </c>
@@ -1834,7 +1921,7 @@
         <v>Your odds of winning are 1 to 5527199!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>3</v>
       </c>
@@ -1867,7 +1954,7 @@
         <v>Your odds of winning are 1 to 658007!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
         <v>27</v>
       </c>
@@ -1901,22 +1988,22 @@
         <v>Your odds of winning are 1 to 109.589579831933!</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G16" s="69"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="69"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="69"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="69"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" s="69"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" s="69"/>
     </row>
   </sheetData>

--- a/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{E9FF61AF-2872-432F-9DF8-BF4D9D52450F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{C682E262-6B18-441A-9435-CF7C2C10A7E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="960" windowWidth="24090" windowHeight="14250" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Game</t>
   </si>
@@ -215,6 +215,9 @@
   <si>
     <t>Your Name Here</t>
   </si>
+  <si>
+    <t>I do exactly this problem in the "Extra Help and Instructions" post. The problem I do there is choose 4 balls from 7 numbered balls and get exactly 2 correct. Your problem is choose 5 balls from 40 and get exactly 3 correct.</t>
+  </si>
 </sst>
 </file>
 
@@ -223,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +337,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -391,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -670,11 +681,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -922,6 +952,18 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -965,30 +1007,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1005,6 +1063,16 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1078,8 +1146,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FCF5FE3F-8619-44EE-90BF-4B9C59A69FF0}">
-  <header guid="{FCF5FE3F-8619-44EE-90BF-4B9C59A69FF0}" dateTime="2022-05-05T12:28:46" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6C7E13DC-AF49-4C15-9794-7DF5209ADFEB}">
+  <header guid="{6C7E13DC-AF49-4C15-9794-7DF5209ADFEB}" dateTime="2022-06-03T15:47:25" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1094,7 +1162,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{FCF5FE3F-8619-44EE-90BF-4B9C59A69FF0}" name="Richard Ketchersid" id="-1739543589" dateTime="2022-05-05T12:28:46"/>
+  <userInfo guid="{6C7E13DC-AF49-4C15-9794-7DF5209ADFEB}" name="Richard Ketchersid" id="-1739584209" dateTime="2022-06-03T15:47:25"/>
 </users>
 </file>
 
@@ -1384,24 +1452,24 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="73" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="83"/>
+      <c r="B3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="75"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="82" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -1412,17 +1480,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="85"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="80"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="29" t="s">
         <v>16</v>
       </c>
@@ -1600,25 +1668,47 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="73"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="88"/>
+      <c r="H25" s="89"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="95"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
@@ -1633,19 +1723,25 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" showRuler="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F20:G23"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F25:H28"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:I23">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$C$2="Your Name Here"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C$2="Your Name Here"</formula>
+      <formula>$C$2&lt;&gt;"Your Name Here"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1653,14 +1749,17 @@
       <formula1>$B$46:$B$47</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F25:H28" r:id="rId2" location="heading=h.fhdvgladk7y3" display="I do exactly this problem in the &quot;Extra Help and Instructions&quot; post. The problem I do there is choose 4 balls from 7 numbered balls and get exactly 2 correct. Your problem is choose 5 balls from 40 and get exactly 3 correct." xr:uid="{C7DC9737-AA62-4405-BD3B-DCEE63948FA9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{495C08AE-80E7-4948-9AA1-572EA21DB2FC}">
+          <x14:cfRule type="expression" priority="4" id="{495C08AE-80E7-4948-9AA1-572EA21DB2FC}">
             <xm:f>B14&lt;&gt;soln1!B11</xm:f>
             <x14:dxf>
               <font>
@@ -1670,7 +1769,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="4" id="{5DAB86F2-292A-45BF-AB02-5BA097126ADD}">
+          <x14:cfRule type="expression" priority="5" id="{5DAB86F2-292A-45BF-AB02-5BA097126ADD}">
             <xm:f>B14=soln1!B11</xm:f>
             <x14:dxf>
               <font>
@@ -1714,10 +1813,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">

--- a/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{C682E262-6B18-441A-9435-CF7C2C10A7E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{BCCA5850-34DD-4E7F-904C-9C2B8D18D83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="960" windowWidth="24090" windowHeight="14250" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
-    <sheet name="soln1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="soln1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Game</t>
   </si>
@@ -218,6 +219,9 @@
   <si>
     <t>I do exactly this problem in the "Extra Help and Instructions" post. The problem I do there is choose 4 balls from 7 numbered balls and get exactly 2 correct. Your problem is choose 5 balls from 40 and get exactly 3 correct.</t>
   </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,6 +349,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -704,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -999,14 +1011,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1033,6 +1037,17 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1040,16 +1055,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1063,6 +1068,16 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1146,11 +1161,12 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6C7E13DC-AF49-4C15-9794-7DF5209ADFEB}">
-  <header guid="{6C7E13DC-AF49-4C15-9794-7DF5209ADFEB}" dateTime="2022-06-03T15:47:25" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{60149C6C-3A13-4D95-9AA9-A8CF4215EB80}">
+  <header guid="{60149C6C-3A13-4D95-9AA9-A8CF4215EB80}" dateTime="2022-07-20T14:02:08" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
+      <sheetId val="3"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1162,7 +1178,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{6C7E13DC-AF49-4C15-9794-7DF5209ADFEB}" name="Richard Ketchersid" id="-1739584209" dateTime="2022-06-03T15:47:25"/>
+  <userInfo guid="{60149C6C-3A13-4D95-9AA9-A8CF4215EB80}" name="Richard Ketchersid" id="-1739571840" dateTime="2022-07-20T14:02:08"/>
 </users>
 </file>
 
@@ -1689,26 +1705,26 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="90"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="90"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="95"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="93"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
@@ -1740,7 +1756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$C$2&lt;&gt;"Your Name Here"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1788,6 +1804,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B00329-900E-4C44-ABF7-150FAC5BFA0C}">
+  <dimension ref="C4:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" state="hidden">
+      <selection activeCell="E15" sqref="E15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="C4:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1D97F0-2451-47BE-A51B-12A3F1003A2C}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -1813,10 +1906,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="95"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">

--- a/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 5/QR 3-3 Tech Template Modified.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{BCCA5850-34DD-4E7F-904C-9C2B8D18D83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{4800127A-A9D4-443B-8A09-71AEF7099565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="960" windowWidth="24090" windowHeight="14250" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="soln1" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="soln1" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -1038,6 +1038,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -1045,9 +1048,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,12 +1161,19 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{60149C6C-3A13-4D95-9AA9-A8CF4215EB80}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{055909E6-47D3-4A97-AC8D-BCC462AC79EF}" diskRevisions="1" version="2">
   <header guid="{60149C6C-3A13-4D95-9AA9-A8CF4215EB80}" dateTime="2022-07-20T14:02:08" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{055909E6-47D3-4A97-AC8D-BCC462AC79EF}" dateTime="2022-07-20T14:43:33" maxSheetId="4" userName="Richard Ketchersid" r:id="rId2">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="3"/>
+      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1176,9 +1183,17 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" action="delete"/>
+  <rcv guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{60149C6C-3A13-4D95-9AA9-A8CF4215EB80}" name="Richard Ketchersid" id="-1739571840" dateTime="2022-07-20T14:02:08"/>
+  <userInfo guid="{055909E6-47D3-4A97-AC8D-BCC462AC79EF}" name="Richard Ketchersid" id="-1739548797" dateTime="2022-07-20T14:43:14"/>
 </users>
 </file>
 
@@ -1804,83 +1819,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B00329-900E-4C44-ABF7-150FAC5BFA0C}">
-  <dimension ref="C4:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" state="hidden">
-      <selection activeCell="E15" sqref="E15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-  </customSheetViews>
-  <mergeCells count="1">
-    <mergeCell ref="C4:G10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1D97F0-2451-47BE-A51B-12A3F1003A2C}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -1906,10 +1844,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="95"/>
+      <c r="C2" s="96"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
@@ -2213,4 +2151,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B00329-900E-4C44-ABF7-150FAC5BFA0C}">
+  <dimension ref="C4:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" state="hidden">
+      <selection activeCell="E15" sqref="E15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="C4:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>